--- a/performance data.xlsx
+++ b/performance data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://4arrowsinccom-my.sharepoint.com/personal/cole_blakeman_4arrowsinc_com/Documents/Cole's Folder/Git Repos/Futoshiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{20AA73DB-FBD1-4299-A798-351A7D3FDD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C264A42-3B07-4865-81B0-43EBF58CF930}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{20AA73DB-FBD1-4299-A798-351A7D3FDD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E41A602-6C01-495B-A0F5-D5FED896A313}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{B22EAB61-B807-4B8A-9528-99636EDC88C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>3x3</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg gen </t>
+  </si>
+  <si>
+    <t>Avge time</t>
+  </si>
+  <si>
+    <t>Avg gen</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop Isze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
   </si>
 </sst>
 </file>
@@ -112,6 +133,4245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3x3 Pop size vs Generations </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generations </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CCB-4884-A2A0-B141B140474C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="407344271"/>
+        <c:axId val="610845103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="407344271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610845103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="610845103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407344271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3x3 Pop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1072-4492-B53D-9C1AA771717D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="619067535"/>
+        <c:axId val="180982879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="619067535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180982879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="180982879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619067535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4x4  Pop size vs Generations </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generations </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$13:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$13:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>732.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>286.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E591-4F51-979D-364372912601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="191460511"/>
+        <c:axId val="362501583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="191460511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362501583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362501583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191460511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4x4 Pop size vs Time </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$13:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$13:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5269-4D4E-9D8E-332F7F13341B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="363388895"/>
+        <c:axId val="712697103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="363388895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712697103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="712697103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363388895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194072</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE2F4FB-AA20-0380-FE3A-30F2E59CB594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196453</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BD1112-4DAD-5538-97CC-B1A64B5996CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>432197</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211931</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8CD97F-2E9B-3298-2F0D-3DB8E70E05BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396478</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145257</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150C55D7-9332-CBD5-401F-01A80766AE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,37 +4671,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C71F9D-D1FC-4D7E-8BCC-0934942B7B5A}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -451,26 +4712,41 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>4</v>
       </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100</v>
       </c>
@@ -480,23 +4756,48 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <f>SUM(B3:B7)/5</f>
+        <v>15.2</v>
+      </c>
       <c r="E3">
+        <f>SUM(C3:C7)/5</f>
+        <v>1.2</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>110</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
+        <f>SUM(H3:H7)/5</f>
+        <v>732.2</v>
+      </c>
+      <c r="K3">
+        <f>SUM(I3:I7)/5</f>
+        <v>33.4</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>6</v>
       </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>100</v>
       </c>
@@ -506,20 +4807,29 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>271</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>100</v>
       </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>15.2</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>100</v>
       </c>
@@ -529,20 +4839,29 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2113</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>90</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>100</v>
       </c>
+      <c r="S5">
+        <v>200</v>
+      </c>
+      <c r="T5">
+        <v>7.2</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>100</v>
       </c>
@@ -552,20 +4871,29 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>670</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>100</v>
       </c>
+      <c r="S6">
+        <v>300</v>
+      </c>
+      <c r="T6">
+        <v>4.2</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>100</v>
       </c>
@@ -575,20 +4903,40 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>497</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>22</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>100</v>
       </c>
+      <c r="S7">
+        <v>400</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8">
+        <v>2.8</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>200</v>
       </c>
@@ -598,20 +4946,45 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <f>SUM(B9:B13)/5</f>
+        <v>7.2</v>
+      </c>
       <c r="E9">
+        <f t="shared" ref="E4:E33" si="0">SUM(C9:C13)/5</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>200</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>655</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>30</v>
       </c>
       <c r="J9">
+        <f t="shared" ref="J9:K9" si="1">SUM(H9:H13)/5</f>
+        <v>730.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N9">
         <v>200</v>
       </c>
+      <c r="S9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>200</v>
       </c>
@@ -621,20 +4994,20 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>200</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>61</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>200</v>
       </c>
@@ -644,20 +5017,23 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>200</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>156</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>200</v>
       </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>200</v>
       </c>
@@ -667,20 +5043,29 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>200</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>465</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>25</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>200</v>
       </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>200</v>
       </c>
@@ -690,20 +5075,40 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>200</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>2317</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>80</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>200</v>
       </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>732.2</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S14">
+        <v>200</v>
+      </c>
+      <c r="T14">
+        <v>730.8</v>
+      </c>
+      <c r="U14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>300</v>
       </c>
@@ -713,20 +5118,45 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <f t="shared" ref="D10:D33" si="2">SUM(B15:B19)/5</f>
+        <v>4.2</v>
+      </c>
       <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>300</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>571</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>25</v>
       </c>
       <c r="J15">
+        <f t="shared" ref="J15:K15" si="3">SUM(H15:H19)/5</f>
+        <v>753</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>25.4</v>
+      </c>
+      <c r="N15">
         <v>300</v>
       </c>
+      <c r="S15">
+        <v>300</v>
+      </c>
+      <c r="T15">
+        <v>753</v>
+      </c>
+      <c r="U15">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>300</v>
       </c>
@@ -736,20 +5166,29 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>300</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1778</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>60</v>
       </c>
-      <c r="J16">
+      <c r="N16">
         <v>300</v>
       </c>
+      <c r="S16">
+        <v>400</v>
+      </c>
+      <c r="T16">
+        <v>346</v>
+      </c>
+      <c r="U16">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>300</v>
       </c>
@@ -759,20 +5198,29 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>300</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>511</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>17</v>
       </c>
-      <c r="J17">
+      <c r="N17">
         <v>300</v>
       </c>
+      <c r="S17">
+        <v>500</v>
+      </c>
+      <c r="T17">
+        <v>394.4</v>
+      </c>
+      <c r="U17">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>300</v>
       </c>
@@ -782,20 +5230,29 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>300</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>59</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="N18">
         <v>300</v>
       </c>
+      <c r="S18">
+        <v>1000</v>
+      </c>
+      <c r="T18">
+        <v>286.8</v>
+      </c>
+      <c r="U18">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>300</v>
       </c>
@@ -805,20 +5262,20 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>300</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>846</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>23</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>400</v>
       </c>
@@ -828,23 +5285,39 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>400</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1070</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>39</v>
       </c>
       <c r="J21">
+        <f t="shared" ref="J21:K21" si="4">SUM(H21:H25)/5</f>
+        <v>346</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>11.8</v>
+      </c>
+      <c r="N21">
         <v>400</v>
       </c>
-      <c r="K21">
+      <c r="O21">
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>400</v>
       </c>
@@ -854,20 +5327,20 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>400</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>128</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="N22">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>400</v>
       </c>
@@ -877,20 +5350,20 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>400</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>374</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>9</v>
       </c>
-      <c r="J23">
+      <c r="N23">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>400</v>
       </c>
@@ -900,20 +5373,20 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>400</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>143</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="J24">
+      <c r="N24">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>400</v>
       </c>
@@ -923,20 +5396,20 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>400</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>15</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
+      <c r="N25">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>500</v>
       </c>
@@ -946,20 +5419,36 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
       <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>500</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>202</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>9</v>
       </c>
       <c r="J27">
+        <f t="shared" ref="J27:K27" si="5">SUM(H27:H31)/5</f>
+        <v>394.4</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>15.8</v>
+      </c>
+      <c r="N27">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>500</v>
       </c>
@@ -969,20 +5458,20 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>500</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>856</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>38</v>
       </c>
-      <c r="J28">
+      <c r="N28">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>500</v>
       </c>
@@ -992,20 +5481,20 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>500</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>96</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29">
+      <c r="N29">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>500</v>
       </c>
@@ -1015,20 +5504,20 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>500</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>795</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>27</v>
       </c>
-      <c r="J30">
+      <c r="N30">
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>500</v>
       </c>
@@ -1038,20 +5527,20 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>500</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>23</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="N31">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -1061,53 +5550,70 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <f>SUM(B33)/1</f>
+        <v>2</v>
+      </c>
       <c r="E33">
+        <f>SUM(C33)/1</f>
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1000</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>25</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>2</v>
       </c>
       <c r="J33">
+        <f t="shared" ref="J33:K33" si="6">SUM(H33:H37)/5</f>
+        <v>286.8</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>22.6</v>
+      </c>
+      <c r="N33">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G34">
         <v>1000</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>562</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>45</v>
       </c>
-      <c r="J34">
+      <c r="N34">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G35">
         <v>1000</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>847</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>66</v>
       </c>
-      <c r="J35">
+      <c r="N35">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>